--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_6_qoq_forecast_error_table_first_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_6_qoq_forecast_error_table_first_eval.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1420281398799347</v>
+        <v>0.05878958822046783</v>
       </c>
       <c r="C2">
-        <v>0.96300297170131</v>
+        <v>0.6848687919290307</v>
       </c>
       <c r="D2">
-        <v>4.425279606777181</v>
+        <v>1.944388015115169</v>
       </c>
       <c r="E2">
-        <v>2.103634855857162</v>
+        <v>1.394413143625364</v>
       </c>
       <c r="F2">
-        <v>2.119719265974769</v>
+        <v>1.397936283545429</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1234272948742712</v>
+        <v>0.06771567608964886</v>
       </c>
       <c r="C3">
-        <v>1.013190509142516</v>
+        <v>0.6998484907537829</v>
       </c>
       <c r="D3">
-        <v>4.456324062957081</v>
+        <v>1.910406263097688</v>
       </c>
       <c r="E3">
-        <v>2.111000725475261</v>
+        <v>1.382174469123811</v>
       </c>
       <c r="F3">
-        <v>2.128784688702496</v>
+        <v>1.385266920986894</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1607615939753095</v>
+        <v>0.07543715453382718</v>
       </c>
       <c r="C4">
-        <v>0.931089636352725</v>
+        <v>0.6915666599019875</v>
       </c>
       <c r="D4">
-        <v>4.199434463388394</v>
+        <v>1.885412560133963</v>
       </c>
       <c r="E4">
-        <v>2.049252171741778</v>
+        <v>1.373103259093781</v>
       </c>
       <c r="F4">
-        <v>2.064107547723181</v>
+        <v>1.375781748473243</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1705283119469347</v>
+        <v>0.07888146508037401</v>
       </c>
       <c r="C5">
-        <v>1.039568901588029</v>
+        <v>0.7033649776424507</v>
       </c>
       <c r="D5">
-        <v>4.679721022412824</v>
+        <v>1.96991753687704</v>
       </c>
       <c r="E5">
-        <v>2.163266285599816</v>
+        <v>1.403537508183176</v>
       </c>
       <c r="F5">
-        <v>2.17935562225223</v>
+        <v>1.406210292228227</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1525391686516503</v>
+        <v>0.08557990013155226</v>
       </c>
       <c r="C6">
-        <v>0.9855784814025781</v>
+        <v>0.712304576464059</v>
       </c>
       <c r="D6">
-        <v>4.478113517829056</v>
+        <v>1.96830456032932</v>
       </c>
       <c r="E6">
-        <v>2.116155362403492</v>
+        <v>1.402962779381306</v>
       </c>
       <c r="F6">
-        <v>2.133468955323994</v>
+        <v>1.405272345080091</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.164531530408786</v>
+        <v>0.0938298966656947</v>
       </c>
       <c r="C7">
-        <v>1.008196845425907</v>
+        <v>0.6980419742238877</v>
       </c>
       <c r="D7">
-        <v>4.671313786093526</v>
+        <v>1.929693431924385</v>
       </c>
       <c r="E7">
-        <v>2.16132223097194</v>
+        <v>1.389134058298329</v>
       </c>
       <c r="F7">
-        <v>2.178864053856015</v>
+        <v>1.390867611014577</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1169720003859123</v>
+        <v>0.1082541482841633</v>
       </c>
       <c r="C8">
-        <v>0.9369220677651683</v>
+        <v>0.6906349894607012</v>
       </c>
       <c r="D8">
-        <v>4.351949521053745</v>
+        <v>1.935468717112932</v>
       </c>
       <c r="E8">
-        <v>2.086132671009624</v>
+        <v>1.391211241010125</v>
       </c>
       <c r="F8">
-        <v>2.106386491385813</v>
+        <v>1.391937795370696</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_6_qoq_forecast_error_table_first_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_6_qoq_forecast_error_table_first_eval.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.05878958822046783</v>
+        <v>0.1420281398799347</v>
       </c>
       <c r="C2">
-        <v>0.6848687919290307</v>
+        <v>0.96300297170131</v>
       </c>
       <c r="D2">
-        <v>1.944388015115169</v>
+        <v>4.425279606777181</v>
       </c>
       <c r="E2">
-        <v>1.394413143625364</v>
+        <v>2.103634855857162</v>
       </c>
       <c r="F2">
-        <v>1.397936283545429</v>
+        <v>2.119719265974769</v>
       </c>
       <c r="G2">
-        <v>147</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.06771567608964886</v>
+        <v>0.1234272948742712</v>
       </c>
       <c r="C3">
-        <v>0.6998484907537829</v>
+        <v>1.013190509142516</v>
       </c>
       <c r="D3">
-        <v>1.910406263097688</v>
+        <v>4.456324062957081</v>
       </c>
       <c r="E3">
-        <v>1.382174469123811</v>
+        <v>2.111000725475261</v>
       </c>
       <c r="F3">
-        <v>1.385266920986894</v>
+        <v>2.128784688702496</v>
       </c>
       <c r="G3">
-        <v>146</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.07543715453382718</v>
+        <v>0.1607615939753095</v>
       </c>
       <c r="C4">
-        <v>0.6915666599019875</v>
+        <v>0.931089636352725</v>
       </c>
       <c r="D4">
-        <v>1.885412560133963</v>
+        <v>4.199434463388394</v>
       </c>
       <c r="E4">
-        <v>1.373103259093781</v>
+        <v>2.049252171741778</v>
       </c>
       <c r="F4">
-        <v>1.375781748473243</v>
+        <v>2.064107547723181</v>
       </c>
       <c r="G4">
-        <v>145</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.07888146508037401</v>
+        <v>0.1705283119469347</v>
       </c>
       <c r="C5">
-        <v>0.7033649776424507</v>
+        <v>1.039568901588029</v>
       </c>
       <c r="D5">
-        <v>1.96991753687704</v>
+        <v>4.679721022412824</v>
       </c>
       <c r="E5">
-        <v>1.403537508183176</v>
+        <v>2.163266285599816</v>
       </c>
       <c r="F5">
-        <v>1.406210292228227</v>
+        <v>2.17935562225223</v>
       </c>
       <c r="G5">
-        <v>144</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.08557990013155226</v>
+        <v>0.1525391686516503</v>
       </c>
       <c r="C6">
-        <v>0.712304576464059</v>
+        <v>0.9855784814025781</v>
       </c>
       <c r="D6">
-        <v>1.96830456032932</v>
+        <v>4.478113517829056</v>
       </c>
       <c r="E6">
-        <v>1.402962779381306</v>
+        <v>2.116155362403492</v>
       </c>
       <c r="F6">
-        <v>1.405272345080091</v>
+        <v>2.133468955323994</v>
       </c>
       <c r="G6">
-        <v>143</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0938298966656947</v>
+        <v>0.164531530408786</v>
       </c>
       <c r="C7">
-        <v>0.6980419742238877</v>
+        <v>1.008196845425907</v>
       </c>
       <c r="D7">
-        <v>1.929693431924385</v>
+        <v>4.671313786093526</v>
       </c>
       <c r="E7">
-        <v>1.389134058298329</v>
+        <v>2.16132223097194</v>
       </c>
       <c r="F7">
-        <v>1.390867611014577</v>
+        <v>2.178864053856015</v>
       </c>
       <c r="G7">
-        <v>142</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1082541482841633</v>
+        <v>0.1169720003859123</v>
       </c>
       <c r="C8">
-        <v>0.6906349894607012</v>
+        <v>0.9369220677651683</v>
       </c>
       <c r="D8">
-        <v>1.935468717112932</v>
+        <v>4.351949521053745</v>
       </c>
       <c r="E8">
-        <v>1.391211241010125</v>
+        <v>2.086132671009624</v>
       </c>
       <c r="F8">
-        <v>1.391937795370696</v>
+        <v>2.106386491385813</v>
       </c>
       <c r="G8">
-        <v>141</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
